--- a/Packages/cn.etetet.quest/Luban/Config/Datas/Text.xlsx
+++ b/Packages/cn.etetet.quest/Luban/Config/Datas/Text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.quest/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940208F9-7721-7849-8167-6F78DCBD0104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAB5DEA-1547-2E44-A050-87182652CD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13080" yWindow="1380" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="text" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -100,6 +100,30 @@
   </si>
   <si>
     <t>Quest_NotFound</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_NotFoundNPC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有找到NPC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_NPCTooFar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC太远了</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_NotFinish</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务没有完成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -172,13 +196,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -457,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -537,7 +564,7 @@
     </row>
     <row r="5" spans="1:5" ht="16">
       <c r="B5" s="3">
-        <v>38001</v>
+        <v>38002</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -549,7 +576,7 @@
     </row>
     <row r="6" spans="1:5" ht="16">
       <c r="B6" s="3">
-        <v>38001</v>
+        <v>38003</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -561,7 +588,7 @@
     </row>
     <row r="7" spans="1:5" ht="16">
       <c r="B7" s="3">
-        <v>38001</v>
+        <v>38004</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
@@ -570,6 +597,39 @@
         <v>15</v>
       </c>
       <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="16">
+      <c r="B8" s="3">
+        <v>38005</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16">
+      <c r="B9" s="3">
+        <v>38006</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="B10" s="3">
+        <v>38007</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
